--- a/ResultadoEleicoesDistritos/SANTARÉM_TORRES NOVAS.xlsx
+++ b/ResultadoEleicoesDistritos/SANTARÉM_TORRES NOVAS.xlsx
@@ -597,64 +597,64 @@
         <v>9215</v>
       </c>
       <c r="H2" t="n">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="I2" t="n">
-        <v>849</v>
+        <v>872</v>
       </c>
       <c r="J2" t="n">
-        <v>3838</v>
+        <v>3898</v>
       </c>
       <c r="K2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L2" t="n">
-        <v>1056</v>
+        <v>1008</v>
       </c>
       <c r="M2" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="N2" t="n">
-        <v>684</v>
+        <v>636</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P2" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R2" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="S2" t="n">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="T2" t="n">
-        <v>717</v>
+        <v>674</v>
       </c>
       <c r="U2" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="V2" t="n">
-        <v>5936</v>
+        <v>5876</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>5796</v>
+        <v>5895</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Z2" t="n">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="AA2" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
